--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2119.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2119.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.987475565348795</v>
+        <v>0.8549507260322571</v>
       </c>
       <c r="B1">
-        <v>1.86113427802666</v>
+        <v>2.643798351287842</v>
       </c>
       <c r="C1">
-        <v>1.434779349723029</v>
+        <v>3.292206048965454</v>
       </c>
       <c r="D1">
-        <v>1.357964781881319</v>
+        <v>1.852099180221558</v>
       </c>
       <c r="E1">
-        <v>1.450630349810207</v>
+        <v>1.418121337890625</v>
       </c>
     </row>
   </sheetData>
